--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H2">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I2">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J2">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,10 +552,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.700035333333333</v>
+        <v>0.415892</v>
       </c>
       <c r="N2">
-        <v>5.100106</v>
+        <v>1.247676</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>62.730696887386</v>
+        <v>15.36486557131867</v>
       </c>
       <c r="R2">
-        <v>564.576271986474</v>
+        <v>138.283790141868</v>
       </c>
       <c r="S2">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="T2">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>10.124457</v>
       </c>
       <c r="I3">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J3">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,10 +614,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.700035333333333</v>
+        <v>0.415892</v>
       </c>
       <c r="N3">
-        <v>5.100106</v>
+        <v>1.247676</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>5.737311543604667</v>
+        <v>1.403560223548</v>
       </c>
       <c r="R3">
-        <v>51.635803892442</v>
+        <v>12.632042011932</v>
       </c>
       <c r="S3">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="T3">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H4">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I4">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J4">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,10 +676,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.700035333333333</v>
+        <v>0.415892</v>
       </c>
       <c r="N4">
-        <v>5.100106</v>
+        <v>1.247676</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>18.18922034260466</v>
+        <v>1.679083128321334</v>
       </c>
       <c r="R4">
-        <v>163.702983083442</v>
+        <v>15.111748154892</v>
       </c>
       <c r="S4">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="T4">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
     </row>
   </sheetData>
